--- a/TesteVerx_v3.xlsx
+++ b/TesteVerx_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor-pc\Desktop\Verx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor-pc\Desktop\Verx\Pronto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8795B-7871-4531-9988-9454D6161B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE28D65-E5F1-4851-9F39-D8798BFA8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{BEC5DE38-E083-4C2D-8BB8-D95A62FCCC79}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="7" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -122,49 +122,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
     </dxf>
@@ -1286,7 +1244,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PIB</a:t>
+              <a:t>IPCA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2329,6 +2287,33 @@
           </c:spPr>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2410,6 +2395,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0061-404F-A6BD-B0234D732F69}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -2462,6 +2452,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0061-404F-A6BD-B0234D732F69}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -2947,7 +2942,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IPCA</a:t>
+              <a:t>PIB</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6110,266 +6105,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADA46174-9CEC-4421-90DC-AB23E1F474FF}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
-  <location ref="G1:H47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="46">
-        <item x="31"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="37"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="35"/>
-        <item x="6"/>
-        <item x="23"/>
-        <item x="41"/>
-        <item x="1"/>
-        <item x="29"/>
-        <item x="36"/>
-        <item x="19"/>
-        <item x="25"/>
-        <item x="42"/>
-        <item x="12"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item x="18"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="38"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="43"/>
-        <item x="4"/>
-        <item x="32"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="26"/>
-        <item x="44"/>
-        <item x="16"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="46">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Valor PIB" fld="1" baseField="0" baseItem="0" numFmtId="4"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="valueGreaterThan" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD6BA0C2-2D16-4913-BA52-77369A9DE97E}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD6BA0C2-2D16-4913-BA52-77369A9DE97E}" name="Tabela dinâmica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
   <location ref="D1:E35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -6540,13 +6276,13 @@
     <dataField name="Taxa Desemprego" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6608,8 +6344,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15303222-4A5D-40BF-AC8C-A18F6207183E}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15303222-4A5D-40BF-AC8C-A18F6207183E}" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" fieldListSortAscending="1">
   <location ref="A1:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -6786,14 +6522,14 @@
     <dataField name="IPCA ANUAL" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="18">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="9">
+  <chartFormats count="10">
     <chartFormat chart="6" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6893,10 +6629,281 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="10" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="0" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADA46174-9CEC-4421-90DC-AB23E1F474FF}" name="Tabela dinâmica4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
+  <location ref="G1:H47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="46">
+        <item x="31"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="37"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="6"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="36"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="38"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="39"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="44"/>
+        <item x="16"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="46">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Valor PIB" fld="1" baseField="0" baseItem="0" numFmtId="4"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="valueGreaterThan" evalOrder="-1" id="2" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
@@ -7284,7 +7291,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
